--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_68.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,88 +626,90 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08792372881355932</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.014988, 20.892721)]</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -708,85 +718,90 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B/7']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -794,182 +809,195 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.040000', '0:00:11.460000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[('0:00:36.280000', '0:00:38')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -978,227 +1006,186 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(83.76, 92.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(109.44, 123.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
